--- a/demo/neteller_withdrawal/test_data/neteller_withdrawal.xlsx
+++ b/demo/neteller_withdrawal/test_data/neteller_withdrawal.xlsx
@@ -71,11 +71,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,7 +96,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +117,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,18 +137,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,9 +155,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,14 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -195,6 +194,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,29 +209,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,49 +239,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,133 +389,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,17 +433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +457,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,20 +492,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -550,133 +550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/demo/neteller_withdrawal/test_data/neteller_withdrawal.xlsx
+++ b/demo/neteller_withdrawal/test_data/neteller_withdrawal.xlsx
@@ -1,238 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>主账号</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>出金交易账号</t>
-  </si>
-  <si>
-    <t>出金金额</t>
-  </si>
-  <si>
-    <t>bos出金时间</t>
-  </si>
-  <si>
-    <t>cp出金时间</t>
-  </si>
-  <si>
-    <t>数据库出金时间</t>
-  </si>
-  <si>
-    <t>接口返回手续费</t>
-  </si>
-  <si>
-    <t>235345346@qq.com</t>
-  </si>
-  <si>
-    <t>Tl123456</t>
-  </si>
-  <si>
-    <t>2021-09-15 17:10:22</t>
-  </si>
-  <si>
-    <t>15/09/2021 12:10</t>
-  </si>
-  <si>
-    <t>tyler.tang@test.com</t>
-  </si>
-  <si>
-    <t>2021-09-15 17:12:08</t>
-  </si>
-  <si>
-    <t>15/09/2021 12:12</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -532,168 +475,170 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -747,11 +692,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1040,149 +980,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="17" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="3"/>
+    <col width="20.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9" customWidth="1" style="1" min="5" max="5"/>
+    <col width="22.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="23.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="23.5" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" ht="27" customHeight="1" s="5">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>主账号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>密码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>出金交易账号</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>出金金额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>bos出金时间</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cp出金时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>数据库出金时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>接口返回手续费</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1200008143</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>235345346@qq.com</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Tl123456</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>612000064</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>101.11</v>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>2021-10-18 16:06:28</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>18/10/2021 11:06</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>44487.33783434028</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1000005349</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>tyler.tang@test.com</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Tl123456</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>672005304</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>55.55</v>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>2021-10-18 16:07:37</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>18/10/2021 11:07</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>44487.33862659722</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>1200008143</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>612000064</v>
-      </c>
-      <c r="E2" s="1">
-        <v>101.11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3">
-        <v>44454.3821996296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1000005349</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>672005304</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55.55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
-        <v>44454.3834344676</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="235345346@qq.com" tooltip="mailto:235345346@qq.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="tyler.tang@test.com"/>
+    <hyperlink ref="B2" tooltip="mailto:235345346@qq.com" display="235345346@qq.com" r:id="rId1"/>
+    <hyperlink ref="B3" display="tyler.tang@test.com" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>